--- a/medicine/Sexualité et sexologie/Sexué/Sexué.xlsx
+++ b/medicine/Sexualité et sexologie/Sexué/Sexué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sexu%C3%A9</t>
+          <t>Sexué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Est dite sexuée une espèce qui nécessite, pour se reproduire, deux individus de sexes opposés, par opposition aux espèces asexuées. La reproduction sexuée permet un brassage génétique.
 La plupart des espèces évoluées que nous[Qui ?] côtoyons, ainsi que l'espèce humaine, sont sexuées.
